--- a/DPWork_2.O_AutomationTesting/testdata/updateSerialNumber_testData.xlsx
+++ b/DPWork_2.O_AutomationTesting/testdata/updateSerialNumber_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DP_WORK_2.O\DPWork_2.O\DPWork_2.O_AutomationTesting\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D46C6-B2EB-4467-BAAB-809EC87BC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09691B0-E66A-4B60-BA21-EF463AC20BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="updateSNActiveSheet1" sheetId="1" r:id="rId1"/>
@@ -236,16 +236,16 @@
     <t>no</t>
   </si>
   <si>
-    <t>37004557</t>
-  </si>
-  <si>
-    <t>37004565</t>
-  </si>
-  <si>
-    <t>37004573</t>
-  </si>
-  <si>
-    <t>37004581</t>
+    <t>37004603</t>
+  </si>
+  <si>
+    <t>37004611</t>
+  </si>
+  <si>
+    <t>37004620</t>
+  </si>
+  <si>
+    <t>37004654</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D4F82-0EAB-4E5A-B234-A466845A6714}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -643,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -658,256 +908,6 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D4F82-0EAB-4E5A-B234-A466845A6714}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
